--- a/biology/Zoologie/Eoherpeton/Eoherpeton.xlsx
+++ b/biology/Zoologie/Eoherpeton/Eoherpeton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eoherpeton watsoni, Eoherpetontidae
 Eoherpeton est un genre éteint de reptiles du sous-ordre lui-même éteint des Embolomeri, le seul de la famille des Eoherpetontidae. Il a vécu en Écosse durant les âges Serpukhovien et Bashkirien  du Carbonifère, il y a environ entre 331 et 315 Ma (millions d'années). Une seule espèce est connue, Eoherpeton watsoni.
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, watsoni, lui a été donné en l'honneur de David Meredith Seares Watson, qui a fourni la première description de l'holotype[1].
-Le nom du genre Eoherpeton a été choisi pour rappeler la proximité de celui-ci avec les genres Palaeoherpeton et Eogyrinus[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, watsoni, lui a été donné en l'honneur de David Meredith Seares Watson, qui a fourni la première description de l'holotype.
+Le nom du genre Eoherpeton a été choisi pour rappeler la proximité de celui-ci avec les genres Palaeoherpeton et Eogyrinus
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Alec Leonard Panchen, « A New Genus and Species of Anthracosaur Amphibian from the Lower Carboniferous of Scotland and the Status of Pholidogaster pisciformis Huxley », Philosophical Transactions of the Royal Society of London. Series B, Biological Sciences, vol. 269, no 900,‎ 9 janvier 1975, p. 581-637 (ISSN 0080-4622 et 2054-0280, DOI 10.1098/RSTB.1975.0002, lire en ligne)</t>
         </is>
